--- a/tests/test_data/fwt_case8.xlsx
+++ b/tests/test_data/fwt_case8.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{F4901314-82D9-4DE5-BD33-D0879906D3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12833199-753B-4D94-90EB-64E19F197141}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{F4901314-82D9-4DE5-BD33-D0879906D3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1126F7C0-5B68-448B-94FE-B9FB932EE58A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2FBD1F4-2459-45CD-802C-891B8518D02E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
   <si>
     <t>-2</t>
   </si>
@@ -154,6 +154,30 @@
   </si>
   <si>
     <t>00299</t>
+  </si>
+  <si>
+    <t>8123732804</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>00204</t>
+  </si>
+  <si>
+    <t>E133459</t>
+  </si>
+  <si>
+    <t>002Q2</t>
+  </si>
+  <si>
+    <t>002Q3</t>
+  </si>
+  <si>
+    <t>8122444030</t>
+  </si>
+  <si>
+    <t>8123732844</t>
   </si>
 </sst>
 </file>
@@ -212,12 +236,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F80F7D-A43A-4668-8C29-D1C2FA45569A}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,6 +901,288 @@
         <v>47.7</v>
       </c>
     </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8">
+        <v>-1</v>
+      </c>
+      <c r="P8">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10">
+        <v>-1</v>
+      </c>
+      <c r="P10">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="P12">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>47.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
